--- a/src/odbm/multi_enzyme_model.xlsx
+++ b/src/odbm/multi_enzyme_model.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dex36\Documents\GitHub\ODBM\Examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\ECFERS\src\odbm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6039192-C04C-4BCA-9904-44E5D4CE0D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D3DF40-A9BF-4143-937C-9B4C102DB6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{37B5865E-6676-4A0B-967E-9A7116103312}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{37B5865E-6676-4A0B-967E-9A7116103312}"/>
   </bookViews>
   <sheets>
     <sheet name="Species &amp; Base Mechanisms" sheetId="1" r:id="rId1"/>
     <sheet name="Reaction" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="111">
   <si>
     <t>Label</t>
   </si>
@@ -98,9 +98,6 @@
     <t>R1</t>
   </si>
   <si>
-    <t>MM</t>
-  </si>
-  <si>
     <t>Pyruvic acid; NH3</t>
   </si>
   <si>
@@ -149,18 +146,6 @@
     <t>Mdh_Taes</t>
   </si>
   <si>
-    <t>kcat:500;Km: .00258</t>
-  </si>
-  <si>
-    <t>kcat: 585;Km: 29.2</t>
-  </si>
-  <si>
-    <t>kcat:436;Km:2.67</t>
-  </si>
-  <si>
-    <t>kcat: 506;Km:2.2</t>
-  </si>
-  <si>
     <t>Oxaloacetic acid;NADH</t>
   </si>
   <si>
@@ -197,30 +182,12 @@
     <t>Oxaloacetic acid; ADP</t>
   </si>
   <si>
-    <t>SOBB</t>
-  </si>
-  <si>
     <t>StartingConc</t>
   </si>
   <si>
-    <t>SOBB; LC</t>
-  </si>
-  <si>
-    <t>kcat:4553;Km1:.405;Km2:1.4</t>
-  </si>
-  <si>
-    <t>kcat:81000;Km1:.02;Km2:.025</t>
-  </si>
-  <si>
-    <t>kcat:121600;Km1:3.23;Km2:0.39</t>
-  </si>
-  <si>
     <t>HCO3</t>
   </si>
   <si>
-    <t>Pyruvic acid;HCO3</t>
-  </si>
-  <si>
     <t>R13</t>
   </si>
   <si>
@@ -248,51 +215,6 @@
     <t>MA</t>
   </si>
   <si>
-    <t>k:0.082</t>
-  </si>
-  <si>
-    <t>k:0.106</t>
-  </si>
-  <si>
-    <t>k:0.012</t>
-  </si>
-  <si>
-    <t>DNA_Sda_Msmeg; 15 Serine</t>
-  </si>
-  <si>
-    <t>DNA_Sda_Bsub; 15 Serine</t>
-  </si>
-  <si>
-    <t>DNA_Sda_Ecoli; 15 Serine</t>
-  </si>
-  <si>
-    <t>DNA_Sda_Lpneu; 15 Serine</t>
-  </si>
-  <si>
-    <t>DNA_PCX_Retli; 22 Serine</t>
-  </si>
-  <si>
-    <t>DNA_PCX_Scer; 22 Serine</t>
-  </si>
-  <si>
-    <t>DNA_PCX_Msmeg; 22 Serine</t>
-  </si>
-  <si>
-    <t>DNA_PCX_Gtherm; 22 Serine</t>
-  </si>
-  <si>
-    <t>DNA_Mdh_Ecoli; 15 Serine</t>
-  </si>
-  <si>
-    <t>DNA_Mdh_Mdom; 15 Serine</t>
-  </si>
-  <si>
-    <t>DNA_Mdh_Remer; 15 Serine</t>
-  </si>
-  <si>
-    <t>DNA_Mdh_Taes; 15 Serine</t>
-  </si>
-  <si>
     <t>DNA_Sda_Msmeg</t>
   </si>
   <si>
@@ -329,103 +251,124 @@
     <t>DNA_Mdh_Taes</t>
   </si>
   <si>
-    <t>DNA_Sda_Msmeg;Sda_Msmeg</t>
-  </si>
-  <si>
-    <t>DNA_Sda_Bsub;Sda_Bsub</t>
-  </si>
-  <si>
-    <t>DNA_Sda_Ecoli;Sda_Ecoli</t>
-  </si>
-  <si>
-    <t>DNA_Sda_Lpneu;Sda_Lpneu</t>
-  </si>
-  <si>
-    <t>DNA_PCX_Retli;PCX_Retli</t>
-  </si>
-  <si>
-    <t>DNA_PCX_Scer;PCX_Scer</t>
-  </si>
-  <si>
-    <t>DNA_PCX_Msmeg;PCX_Msmeg</t>
-  </si>
-  <si>
-    <t>DNA_PCX_Gtherm;PCX_Gtherm</t>
-  </si>
-  <si>
-    <t>DNA_Mdh_Ecoli;Mdh_Ecoli</t>
-  </si>
-  <si>
-    <t>DNA_Mdh_Mdom;Mdh_Mdom</t>
-  </si>
-  <si>
-    <t>DNA_Mdh_Remer;Mdh_Remer</t>
-  </si>
-  <si>
-    <t>DNA_Mdh_Taes;Mdh_Taes</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
-    <t>R21</t>
-  </si>
-  <si>
-    <t>R22</t>
-  </si>
-  <si>
-    <t>R23</t>
-  </si>
-  <si>
-    <t>R24</t>
-  </si>
-  <si>
-    <t>R25</t>
-  </si>
-  <si>
-    <t>R26</t>
-  </si>
-  <si>
-    <t>R27</t>
-  </si>
-  <si>
-    <t>MMA</t>
-  </si>
-  <si>
     <t>NH3</t>
   </si>
   <si>
-    <t>k$TXTL:0.86</t>
-  </si>
-  <si>
-    <t>kcat:7.33;Km1:1.65;Km2:10.8;maxC$ATP_C0:4</t>
-  </si>
-  <si>
-    <t>kcat:60;Km1:.5;Km2:1.36;maxC$ATP_C0:4</t>
-  </si>
-  <si>
-    <t>kcat:33.5;Km1:.375;Km2:3.8;maxC$ATP_C0:4</t>
-  </si>
-  <si>
-    <t>kcat:33.5;Km1:.31;Km2:45;maxC$ATP_C0:4</t>
-  </si>
-  <si>
-    <t>MM; LC</t>
-  </si>
-  <si>
-    <t>kcat:931;Km1:04;maxC$NADH_C0:10</t>
+    <t>kcat</t>
+  </si>
+  <si>
+    <t>Km</t>
+  </si>
+  <si>
+    <t>kcatF:300</t>
+  </si>
+  <si>
+    <t>kcatF:301</t>
+  </si>
+  <si>
+    <t>kcatF:302</t>
+  </si>
+  <si>
+    <t>kcatF:303</t>
+  </si>
+  <si>
+    <t>kcatF:304</t>
+  </si>
+  <si>
+    <t>kcatF:305</t>
+  </si>
+  <si>
+    <t>kcatF:306</t>
+  </si>
+  <si>
+    <t>kcatF:307</t>
+  </si>
+  <si>
+    <t>kcatF:308</t>
+  </si>
+  <si>
+    <t>kcatF:309</t>
+  </si>
+  <si>
+    <t>kcatF:310</t>
+  </si>
+  <si>
+    <t>kcatF:311</t>
+  </si>
+  <si>
+    <t>kcatF:312</t>
+  </si>
+  <si>
+    <t>kcatF:313</t>
+  </si>
+  <si>
+    <t>kcatF:314</t>
+  </si>
+  <si>
+    <t>Km:1</t>
+  </si>
+  <si>
+    <t>Km:2</t>
+  </si>
+  <si>
+    <t>Km:3</t>
+  </si>
+  <si>
+    <t>Km:4</t>
+  </si>
+  <si>
+    <t>Km:5</t>
+  </si>
+  <si>
+    <t>Km:6</t>
+  </si>
+  <si>
+    <t>Km:7</t>
+  </si>
+  <si>
+    <t>Km:8</t>
+  </si>
+  <si>
+    <t>Km:9</t>
+  </si>
+  <si>
+    <t>Km:10</t>
+  </si>
+  <si>
+    <t>Km:11</t>
+  </si>
+  <si>
+    <t>Km:12</t>
+  </si>
+  <si>
+    <t>Km:13</t>
+  </si>
+  <si>
+    <t>Km:14</t>
+  </si>
+  <si>
+    <t>Km:15</t>
+  </si>
+  <si>
+    <t>MRL</t>
+  </si>
+  <si>
+    <t>kcatF:1</t>
+  </si>
+  <si>
+    <t>1.1.1.37</t>
+  </si>
+  <si>
+    <t>4.3.1.17</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>Oxaloacetic acid; NADH</t>
+  </si>
+  <si>
+    <t>Pyruvic acid;HCO3; ATP</t>
   </si>
 </sst>
 </file>
@@ -461,18 +404,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -487,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -498,28 +435,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -863,23 +785,23 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C2">
@@ -889,7 +811,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -911,7 +833,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -933,7 +855,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1019,141 +941,141 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>27</v>
+      <c r="A17" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
@@ -1164,7 +1086,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -1175,7 +1097,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
@@ -1186,7 +1108,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
@@ -1197,7 +1119,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
@@ -1208,7 +1130,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
@@ -1219,7 +1141,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
@@ -1230,7 +1152,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -1241,7 +1163,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
@@ -1252,7 +1174,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -1263,7 +1185,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
@@ -1274,7 +1196,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
@@ -1292,626 +1214,531 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542CDD3C-AD6A-49FE-94BE-7648650D73FD}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD30"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" customWidth="1"/>
+    <col min="8" max="8" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>108</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="I1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="H10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="G14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="H16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F31" s="4"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="4"/>
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="4"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="3"/>
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="3"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F36" s="3"/>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F37" s="3"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F38" s="3"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F39" s="3"/>
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F40" s="3"/>
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F41" s="3"/>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F42" s="3"/>
-      <c r="G42" s="8"/>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="3"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1931,100 +1758,100 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="8" t="s">
-        <v>67</v>
+      <c r="A1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>67</v>
+      <c r="A2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>67</v>
+      <c r="A3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>67</v>
+      <c r="A4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>67</v>
+      <c r="A5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>67</v>
+      <c r="A6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>67</v>
+      <c r="A7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>67</v>
+      <c r="A8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>67</v>
+      <c r="A9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>67</v>
+      <c r="A10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>67</v>
+      <c r="A11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>67</v>
+      <c r="A12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
